--- a/Quiz/FIX.xlsx
+++ b/Quiz/FIX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\2\4.MPS\1.mps\quiz1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\2\4.Metode Penarikan Sampel\1.mps\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B78FBBC-8E97-404A-B519-AF9D7B9FA5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351BC2D-9C1A-465C-A6B4-1917E04DC6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -103,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,20 +150,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,21 +186,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -219,6 +202,9 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -238,12 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56C4DB55-8DFA-474E-9894-BE509D38F404}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C6" xr:uid="{16E0B049-7F7D-4A17-BFEA-EC6ACEA254C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56C4DB55-8DFA-474E-9894-BE509D38F404}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C11" xr:uid="{16E0B049-7F7D-4A17-BFEA-EC6ACEA254C0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9166DA95-AF0B-4CD5-B1F3-925927C79490}" name="Nama Kecamatan" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CCF57393-744C-4D67-8BFE-5C763A5C1DBC}" name="data" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D334B02A-E226-439E-8B8D-DB3D3D7E23FE}" name="peluang" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9166DA95-AF0B-4CD5-B1F3-925927C79490}" name="Nama Kecamatan" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CCF57393-744C-4D67-8BFE-5C763A5C1DBC}" name="data" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D334B02A-E226-439E-8B8D-DB3D3D7E23FE}" name="peluang" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,7 +501,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC86223-6A1D-4B0B-A611-7D8BE178DCEA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,55 +1038,110 @@
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
-        <v>75</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1.3268867238621493E-2</v>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
-        <v>410</v>
-      </c>
-      <c r="C3" s="10">
-        <v>5.9473607677766466E-2</v>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
-        <v>2365</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.34375454413261597</v>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
-        <v>390</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5.772866075323542E-2</v>
+      <c r="B5">
+        <v>36.25</v>
+      </c>
+      <c r="C5">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
-        <v>185</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3.3808346662789007E-2</v>
+      <c r="B6">
+        <v>36.25</v>
+      </c>
+      <c r="C6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>47.5</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>47.5</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>72.5</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>72.5</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
